--- a/assets/docs/Competences.xlsx
+++ b/assets/docs/Competences.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mutualite70-my.sharepoint.com/personal/oscar_pardon_mutualite70_fr/Documents/Cours/portfollio/OscarPARDON.github.io/assets/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D93B092-681D-4C91-A323-A7FACB95B479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{8D93B092-681D-4C91-A323-A7FACB95B479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89C2C89D-3B0F-41D2-8A18-71EC4081E189}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,18 +101,12 @@
 (intitulé et liste des documents et productions associés)</t>
   </si>
   <si>
-    <t xml:space="preserve">N° candidat : </t>
-  </si>
-  <si>
     <t>Réalisations en milieu professionnel en cours de première année</t>
   </si>
   <si>
     <t>Réalisations en milieu professionnel en cours de seconde année</t>
   </si>
   <si>
-    <t>Adresse URL du portfolio :</t>
-  </si>
-  <si>
     <t>SESSION 2025</t>
   </si>
   <si>
@@ -174,6 +168,12 @@
   </si>
   <si>
     <t>11/2024 - 03/2025</t>
+  </si>
+  <si>
+    <t>Adresse URL du portfolio : https://OscarPARDON.github.io</t>
+  </si>
+  <si>
+    <t>N° candidat : 02148596825</t>
   </si>
 </sst>
 </file>
@@ -754,8 +754,101 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -780,99 +873,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1259,8 +1259,8 @@
   </sheetPr>
   <dimension ref="A1:AQ66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1276,56 +1276,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="16"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="24"/>
+      <c r="A3" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="49"/>
+      <c r="H3" s="55"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
+      <c r="A4" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="10" t="s">
         <v>8</v>
       </c>
@@ -1337,23 +1337,23 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
+      <c r="A5" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="47"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>24</v>
+      <c r="B6" s="43" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>0</v>
@@ -1375,8 +1375,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.89999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1432,16 +1432,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1479,20 +1479,20 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>43</v>
+      <c r="A9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="40"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="13"/>
-      <c r="F9" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>28</v>
+      <c r="F9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9"/>
@@ -1532,20 +1532,20 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="50">
+      <c r="A10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="25">
         <v>45717</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="40"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>28</v>
+      <c r="F10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10"/>
@@ -1585,19 +1585,19 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>42</v>
+      <c r="A11" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="54" t="s">
-        <v>28</v>
+      <c r="H11" s="29" t="s">
+        <v>26</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -1636,18 +1636,18 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="50">
+      <c r="A12" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="25">
         <v>45444</v>
       </c>
-      <c r="C12" s="40" t="s">
-        <v>40</v>
+      <c r="C12" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="40" t="s">
-        <v>28</v>
+      <c r="E12" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -1689,16 +1689,16 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
+      <c r="A13" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1736,24 +1736,24 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="49"/>
+      <c r="A14" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="24"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1791,20 +1791,20 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>34</v>
+      <c r="A15" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="40" t="s">
-        <v>28</v>
+      <c r="D15" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="40" t="s">
-        <v>28</v>
+      <c r="G15" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15"/>
@@ -1844,20 +1844,20 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="52">
+      <c r="A16" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="27">
         <v>45383</v>
       </c>
-      <c r="C16" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="47"/>
+      <c r="C16" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1895,16 +1895,16 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
+      <c r="A17" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="42"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1942,22 +1942,22 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="39" t="s">
+      <c r="A18" s="16" t="s">
         <v>31</v>
       </c>
+      <c r="B18" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="40" t="s">
-        <v>28</v>
+      <c r="D18" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="E18" s="13"/>
-      <c r="F18" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>28</v>
+      <c r="F18" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18"/>
@@ -1997,20 +1997,20 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>30</v>
+      <c r="A19" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>28</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="40" t="s">
-        <v>28</v>
+      <c r="D19" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="40" t="s">
-        <v>28</v>
+      <c r="G19" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19"/>
@@ -2142,6 +2142,11 @@
     <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2149,11 +2154,6 @@
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2165,21 +2165,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3CF964BE5E9B34EB95030C40E4AA345" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="bddbe1c09382690b7287b07c00ad9565">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a9f7c678-da62-4b6b-aadc-89bc06407348" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a65d95e2258309ce9510f004f7688ef8" ns2:_="">
     <xsd:import namespace="a9f7c678-da62-4b6b-aadc-89bc06407348"/>
@@ -2323,24 +2308,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19D11DBF-BFB3-4258-96AF-4D6D08B3AF8F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E165AEF2-9418-49EE-AA13-CC0264C91A9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F72C0D4-E5A9-4249-9B14-30B01B9542E2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2356,4 +2339,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E165AEF2-9418-49EE-AA13-CC0264C91A9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19D11DBF-BFB3-4258-96AF-4D6D08B3AF8F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>